--- a/data/result/#20240812_result.xlsx
+++ b/data/result/#20240812_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\FMDR\data\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52753DF-CE03-4034-80F8-97D9FD0A1997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B4741C-351E-452C-86BA-24E90BA7E66D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="34635" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="34635" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curated_F" sheetId="4" r:id="rId1"/>
@@ -20,13 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Curated!$A$1:$M$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Curated_F!$A$1:$M$53</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -231,6 +232,14 @@
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>STDEV Point MDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STDEV FMDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -273,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +307,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -322,11 +337,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -346,6 +372,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -839,21 +869,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="6" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="10" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -872,23 +902,29 @@
       <c r="F1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -908,22 +944,30 @@
         <v>1.2928436070111671</v>
       </c>
       <c r="G2" s="6">
+        <f>_xlfn.STDEV.P(C2:F2)</f>
+        <v>0.17434557189763622</v>
+      </c>
+      <c r="H2" s="6">
         <v>1.175789650660052</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>1.186031398881028</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>1.187801040069064</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>1.189044409669993</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>1.190092631343709</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2" s="11">
+        <f>_xlfn.STDEV.P(H2:L2)</f>
+        <v>5.1615128607105263E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -943,22 +987,30 @@
         <v>1.119706970766134</v>
       </c>
       <c r="G3" s="6">
+        <f>_xlfn.STDEV.P(C3:F3)</f>
+        <v>0.18897871709826652</v>
+      </c>
+      <c r="H3" s="6">
         <v>0.88677018929908491</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>0.90032384060157467</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>0.90278491417649198</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>0.9030523813929856</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <v>0.9044863419241953</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" s="11">
+        <f>_xlfn.STDEV.P(H3:L3)</f>
+        <v>6.4961391392038409E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -978,22 +1030,30 @@
         <v>0.5137410447125017</v>
       </c>
       <c r="G4" s="6">
+        <f>_xlfn.STDEV.P(C4:F4)</f>
+        <v>0.12779497986667623</v>
+      </c>
+      <c r="H4" s="6">
         <v>0.59163200040648412</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>0.58207419246934877</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>0.58033158043666355</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>0.57923050413245214</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>0.57805982378989662</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="11">
+        <f>_xlfn.STDEV.P(H4:L4)</f>
+        <v>4.8663515191850219E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1013,22 +1073,30 @@
         <v>1.043231757591321</v>
       </c>
       <c r="G5" s="6">
+        <f>_xlfn.STDEV.P(C5:F5)</f>
+        <v>0.15253791983183013</v>
+      </c>
+      <c r="H5" s="6">
         <v>0.88184076688038071</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>0.88241029873726817</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.88252426088683844</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>0.88261023078969369</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>0.88268800847336126</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5" s="11">
+        <f>_xlfn.STDEV.P(H5:L5)</f>
+        <v>3.0144717457578524E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1048,22 +1116,30 @@
         <v>1.182944735430647</v>
       </c>
       <c r="G6" s="8">
+        <f>_xlfn.STDEV.P(C6:F6)</f>
+        <v>0.59363770218916212</v>
+      </c>
+      <c r="H6" s="8">
         <v>1.50992695348416</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>1.4473563186910281</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>1.437065840263728</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>1.431186740545936</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>1.425130765821558</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6" s="8">
+        <f>_xlfn.STDEV.P(H6:L6)</f>
+        <v>3.0782624828370259E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1083,22 +1159,30 @@
         <v>1.3377175387207909</v>
       </c>
       <c r="G7" s="6">
+        <f>_xlfn.STDEV.P(C7:F7)</f>
+        <v>0.10890801923009204</v>
+      </c>
+      <c r="H7" s="6">
         <v>1.226289549567303</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>1.227136410250931</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>1.2272856867025199</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>1.2273932376464529</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>1.227486849075113</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7" s="11">
+        <f>_xlfn.STDEV.P(H7:L7)</f>
+        <v>4.3048639662319137E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1118,22 +1202,30 @@
         <v>1.0973536553408509</v>
       </c>
       <c r="G8" s="6">
+        <f>_xlfn.STDEV.P(C8:F8)</f>
+        <v>9.9476237982179902E-2</v>
+      </c>
+      <c r="H8" s="6">
         <v>0.98914151646776405</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>0.9879718828664763</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>0.98775736630928679</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>0.98757507318659765</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>0.9873845253560285</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8" s="11">
+        <f>_xlfn.STDEV.P(H8:L8)</f>
+        <v>6.1908611670678695E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1153,22 +1245,30 @@
         <v>1.236475868345065</v>
       </c>
       <c r="G9" s="6">
+        <f>_xlfn.STDEV.P(C9:F9)</f>
+        <v>0.22671901515880713</v>
+      </c>
+      <c r="H9" s="6">
         <v>1.023313045401679</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>1.027439412008363</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>1.0281787009559631</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>1.028716259012278</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>1.029188136031872</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="11">
+        <f>_xlfn.STDEV.P(H9:L9)</f>
+        <v>2.1088236575711062E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1188,22 +1288,30 @@
         <v>1.0394214711941021</v>
       </c>
       <c r="G10" s="6">
+        <f>_xlfn.STDEV.P(C10:F10)</f>
+        <v>0.17635080880965756</v>
+      </c>
+      <c r="H10" s="6">
         <v>0.82076434380784602</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>0.83351087867025608</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>0.83581249438229421</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>0.83605084532320673</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>0.8373889575445147</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10" s="11">
+        <f>_xlfn.STDEV.P(H10:L10)</f>
+        <v>6.0994978482203522E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1223,22 +1331,30 @@
         <v>0.85385789946188995</v>
       </c>
       <c r="G11" s="6">
+        <f>_xlfn.STDEV.P(C11:F11)</f>
+        <v>0.1209132769985448</v>
+      </c>
+      <c r="H11" s="6">
         <v>0.76324232503431455</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>0.76875936160389069</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>0.7696982003561007</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>0.77034904538472093</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>0.77088895540525959</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M11" s="11">
+        <f>_xlfn.STDEV.P(H11:L11)</f>
+        <v>2.7652785104028649E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1258,22 +1374,30 @@
         <v>0.88597094488023009</v>
       </c>
       <c r="G12" s="6">
+        <f>_xlfn.STDEV.P(C12:F12)</f>
+        <v>7.8657599218031934E-2</v>
+      </c>
+      <c r="H12" s="6">
         <v>0.80346417017578775</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>0.80358217904731044</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>0.80361433255348003</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <v>0.80364090820298972</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <v>0.80366667577362316</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M12" s="11">
+        <f>_xlfn.STDEV.P(H12:L12)</f>
+        <v>7.0555619146233677E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1293,22 +1417,30 @@
         <v>1.359958703582691</v>
       </c>
       <c r="G13" s="6">
+        <f>_xlfn.STDEV.P(C13:F13)</f>
+        <v>0.164932403502936</v>
+      </c>
+      <c r="H13" s="6">
         <v>1.2723992313202299</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>1.2850223264070151</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>1.287178051113907</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>1.2886788674848759</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>1.2899310179206449</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M13" s="11">
+        <f>_xlfn.STDEV.P(H13:L13)</f>
+        <v>6.3361123408408023E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1328,22 +1460,30 @@
         <v>1.1920776197599099</v>
       </c>
       <c r="G14" s="6">
+        <f>_xlfn.STDEV.P(C14:F14)</f>
+        <v>0.17120689409230003</v>
+      </c>
+      <c r="H14" s="6">
         <v>0.96683960778204692</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>0.97885703152736736</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>0.98102945004002429</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>0.98101620940259804</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>0.98225249639681356</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M14" s="11">
+        <f>_xlfn.STDEV.P(H14:L14)</f>
+        <v>5.6859065132939092E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1363,22 +1503,30 @@
         <v>1.307216689514733</v>
       </c>
       <c r="G15" s="6">
+        <f>_xlfn.STDEV.P(C15:F15)</f>
+        <v>0.29681280175887725</v>
+      </c>
+      <c r="H15" s="6">
         <v>1.0179031200111359</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>1.023032035574682</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>1.023943898217996</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>1.024604535804283</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>1.0251825533703369</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M15" s="11">
+        <f>_xlfn.STDEV.P(H15:L15)</f>
+        <v>2.6148016370000152E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1398,22 +1546,30 @@
         <v>1.3741915773001849</v>
       </c>
       <c r="G16" s="8">
+        <f>_xlfn.STDEV.P(C16:F16)</f>
+        <v>0.33117892844821445</v>
+      </c>
+      <c r="H16" s="8">
         <v>1.063025027053661</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>1.070967270442535</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>1.07234029572658</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>1.0733099477988839</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>1.0741333999887801</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M16" s="8">
+        <f>_xlfn.STDEV.P(H16:L16)</f>
+        <v>4.0062962345470869E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1433,22 +1589,30 @@
         <v>0.62234072373973781</v>
       </c>
       <c r="G17" s="6">
+        <f>_xlfn.STDEV.P(C17:F17)</f>
+        <v>0.22464942872792709</v>
+      </c>
+      <c r="H17" s="6">
         <v>0.73827306315834618</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>0.71784956240979036</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>0.71431141025053735</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>0.71203754625693216</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>0.7098312055126148</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M17" s="11">
+        <f>_xlfn.STDEV.P(H17:L17)</f>
+        <v>1.025519290419003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1468,22 +1632,30 @@
         <v>1.036939083743847</v>
       </c>
       <c r="G18" s="6">
+        <f>_xlfn.STDEV.P(C18:F18)</f>
+        <v>9.8805350758283061E-2</v>
+      </c>
+      <c r="H18" s="6">
         <v>0.87522094154460306</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>0.87966675296225527</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>0.88052874797686309</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>0.87985633038413569</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <v>0.88029886322866979</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M18" s="11">
+        <f>_xlfn.STDEV.P(H18:L18)</f>
+        <v>1.970680417874003E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1503,22 +1675,30 @@
         <v>0.52806493857956127</v>
       </c>
       <c r="G19" s="6">
+        <f>_xlfn.STDEV.P(C19:F19)</f>
+        <v>0.231034125073136</v>
+      </c>
+      <c r="H19" s="6">
         <v>0.58892454534039151</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>0.56326492719520582</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>0.55918633429104858</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>0.55631740020620568</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
         <v>0.55388138018118782</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M19" s="11">
+        <f>_xlfn.STDEV.P(H19:L19)</f>
+        <v>1.2695334667990908E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1538,26 +1718,34 @@
         <v>0.85300149160634597</v>
       </c>
       <c r="G20" s="6">
+        <f>_xlfn.STDEV.P(C20:F20)</f>
+        <v>0.13134323461310393</v>
+      </c>
+      <c r="H20" s="6">
         <v>0.74070505462387781</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>0.74459371835290267</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>0.74528398759235104</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <v>0.74578375617339021</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <v>0.74622077478225513</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="11">
+        <f>_xlfn.STDEV.P(H20:L20)</f>
+        <v>1.9815449469686736E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="7">
@@ -1572,23 +1760,31 @@
       <c r="F21" s="7">
         <v>0.44025791137221598</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
+        <f>_xlfn.STDEV.P(C21:F21)</f>
+        <v>2.5811013760938376E-2</v>
+      </c>
+      <c r="H21" s="7">
         <v>0.41846181498169732</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <v>0.41900905034026342</v>
       </c>
-      <c r="I21" s="7">
+      <c r="J21" s="7">
         <v>0.4191056958032961</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>0.41917557067280697</v>
       </c>
-      <c r="K21" s="7">
+      <c r="L21" s="7">
         <v>0.41923660318799227</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M21" s="11">
+        <f>_xlfn.STDEV.P(H21:L21)</f>
+        <v>2.7845192584319262E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1608,22 +1804,30 @@
         <v>1.2997867197320001</v>
       </c>
       <c r="G22" s="6">
+        <f>_xlfn.STDEV.P(C22:F22)</f>
+        <v>7.1747779253260355E-2</v>
+      </c>
+      <c r="H22" s="6">
         <v>1.246558816378347</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>1.2339916092479579</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
         <v>1.231860536760752</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <v>1.230347690556215</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="6">
         <v>1.2290479405157031</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M22" s="11">
+        <f>_xlfn.STDEV.P(H22:L22)</f>
+        <v>6.3168147607132455E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1643,22 +1847,30 @@
         <v>1.6295049327439961</v>
       </c>
       <c r="G23" s="6">
+        <f>_xlfn.STDEV.P(C23:F23)</f>
+        <v>0.30539919437337693</v>
+      </c>
+      <c r="H23" s="6">
         <v>1.248279550738552</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>1.2705577216766371</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>1.274567183229995</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>1.274912896083497</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="6">
         <v>1.2772281913668011</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M23" s="11">
+        <f>_xlfn.STDEV.P(H23:L23)</f>
+        <v>1.0633560018578644E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1678,22 +1890,30 @@
         <v>1.402780581089988</v>
       </c>
       <c r="G24" s="6">
+        <f>_xlfn.STDEV.P(C24:F24)</f>
+        <v>0.15661082528264123</v>
+      </c>
+      <c r="H24" s="6">
         <v>1.28027990201833</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>1.2869730016408429</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <v>1.2881608711893371</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <v>1.2890209507381301</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="6">
         <v>1.2897730798780569</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M24" s="11">
+        <f>_xlfn.STDEV.P(H24:L24)</f>
+        <v>3.4104770098200422E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1713,22 +1933,30 @@
         <v>1.2228616148035869</v>
       </c>
       <c r="G25" s="6">
+        <f>_xlfn.STDEV.P(C25:F25)</f>
+        <v>0.23891606499271409</v>
+      </c>
+      <c r="H25" s="6">
         <v>0.99142627431916031</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="6">
         <v>0.99566254450482938</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <v>0.99640676989213017</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <v>0.99694349638571822</v>
       </c>
-      <c r="K25" s="6">
+      <c r="L25" s="6">
         <v>0.99741123970844614</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M25" s="11">
+        <f>_xlfn.STDEV.P(H25:L25)</f>
+        <v>2.1520161161217889E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1748,22 +1976,30 @@
         <v>1.4481903530324609</v>
       </c>
       <c r="G26" s="6">
+        <f>_xlfn.STDEV.P(C26:F26)</f>
+        <v>0.27290878518887202</v>
+      </c>
+      <c r="H26" s="6">
         <v>1.174982196454901</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="6">
         <v>1.178740624880765</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <v>1.179400786380874</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>1.179876891181239</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="6">
         <v>1.1802918106270981</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M26" s="11">
+        <f>_xlfn.STDEV.P(H26:L26)</f>
+        <v>1.9091946988631361E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1783,22 +2019,30 @@
         <v>0.91034884924763815</v>
       </c>
       <c r="G27" s="6">
+        <f>_xlfn.STDEV.P(C27:F27)</f>
+        <v>0.14115728497009455</v>
+      </c>
+      <c r="H27" s="6">
         <v>0.77582040080997849</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="6">
         <v>0.77848991775166754</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <v>0.77895728193351932</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <v>0.77929391692711292</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>0.7795869679914611</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M27" s="11">
+        <f>_xlfn.STDEV.P(H27:L27)</f>
+        <v>1.3547362280802201E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1818,22 +2062,30 @@
         <v>1.1355970708370671</v>
       </c>
       <c r="G28" s="6">
+        <f>_xlfn.STDEV.P(C28:F28)</f>
+        <v>6.434181982744043E-2</v>
+      </c>
+      <c r="H28" s="6">
         <v>1.070857574310631</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <v>1.071723973047451</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <v>1.0718725107715801</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <v>1.0719783487030801</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <v>1.0720695713979149</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M28" s="11">
+        <f>_xlfn.STDEV.P(H28:L28)</f>
+        <v>4.3682398089114015E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1853,22 +2105,30 @@
         <v>1.0784592181988819</v>
       </c>
       <c r="G29" s="6">
+        <f>_xlfn.STDEV.P(C29:F29)</f>
+        <v>0.176082889461914</v>
+      </c>
+      <c r="H29" s="6">
         <v>0.88120828715495136</v>
       </c>
-      <c r="H29" s="6">
+      <c r="I29" s="6">
         <v>0.89492030304542047</v>
       </c>
-      <c r="I29" s="6">
+      <c r="J29" s="6">
         <v>0.89737377229972037</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="6">
         <v>0.89787164952920417</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="6">
         <v>0.89931190508754399</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M29" s="11">
+        <f>_xlfn.STDEV.P(H29:L29)</f>
+        <v>6.6176902921454509E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1888,22 +2148,30 @@
         <v>1.282950337518117</v>
       </c>
       <c r="G30" s="6">
+        <f>_xlfn.STDEV.P(C30:F30)</f>
+        <v>0.26194961450937837</v>
+      </c>
+      <c r="H30" s="6">
         <v>1.034594037143741</v>
       </c>
-      <c r="H30" s="6">
+      <c r="I30" s="6">
         <v>1.0398571449779881</v>
       </c>
-      <c r="I30" s="6">
+      <c r="J30" s="6">
         <v>1.040791106955417</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="6">
         <v>1.041467394142833</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="6">
         <v>1.042058844966137</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M30" s="11">
+        <f>_xlfn.STDEV.P(H30:L30)</f>
+        <v>2.681770899044332E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -1922,23 +2190,31 @@
       <c r="F31" s="11">
         <v>1.154728483018874</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="6">
+        <f>_xlfn.STDEV.P(C31:F31)</f>
+        <v>0.24278786586502682</v>
+      </c>
+      <c r="H31" s="11">
         <v>0.92056879043326612</v>
       </c>
-      <c r="H31" s="11">
+      <c r="I31" s="11">
         <v>0.92414191100785503</v>
       </c>
-      <c r="I31" s="11">
+      <c r="J31" s="11">
         <v>0.92478271263863643</v>
       </c>
-      <c r="J31" s="11">
+      <c r="K31" s="11">
         <v>0.92524863028985782</v>
       </c>
-      <c r="K31" s="11">
+      <c r="L31" s="11">
         <v>0.92565755502987646</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M31" s="11">
+        <f>_xlfn.STDEV.P(H31:L31)</f>
+        <v>1.8265052554800973E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1958,22 +2234,30 @@
         <v>1.287978045292324</v>
       </c>
       <c r="G32" s="6">
+        <f>_xlfn.STDEV.P(C32:F32)</f>
+        <v>0.2505279880721954</v>
+      </c>
+      <c r="H32" s="6">
         <v>1.0509290818144139</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <v>1.054288717626104</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <v>1.054893575272509</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="6">
         <v>1.0553340179223949</v>
       </c>
-      <c r="K32" s="6">
+      <c r="L32" s="6">
         <v>1.0557210849696499</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M32" s="11">
+        <f>_xlfn.STDEV.P(H32:L32)</f>
+        <v>1.7194171353819218E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1993,22 +2277,30 @@
         <v>1.3090966459339739</v>
       </c>
       <c r="G33" s="6">
+        <f>_xlfn.STDEV.P(C33:F33)</f>
+        <v>0.27151975512283366</v>
+      </c>
+      <c r="H33" s="6">
         <v>1.0382394048955079</v>
       </c>
-      <c r="H33" s="6">
+      <c r="I33" s="6">
         <v>1.0414923569664469</v>
       </c>
-      <c r="I33" s="6">
+      <c r="J33" s="6">
         <v>1.0420698875139811</v>
       </c>
-      <c r="J33" s="6">
+      <c r="K33" s="6">
         <v>1.0424880276271851</v>
       </c>
-      <c r="K33" s="6">
+      <c r="L33" s="6">
         <v>1.0428536595792111</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M33" s="11">
+        <f>_xlfn.STDEV.P(H33:L33)</f>
+        <v>1.6576767911605358E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2028,22 +2320,30 @@
         <v>0.99350740886349953</v>
       </c>
       <c r="G34" s="6">
+        <f>_xlfn.STDEV.P(C34:F34)</f>
+        <v>0.17561612070926333</v>
+      </c>
+      <c r="H34" s="6">
         <v>0.82864667712733531</v>
       </c>
-      <c r="H34" s="6">
+      <c r="I34" s="6">
         <v>0.83258920492809951</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J34" s="6">
         <v>0.83328094790151086</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="6">
         <v>0.833779521369863</v>
       </c>
-      <c r="K34" s="6">
+      <c r="L34" s="6">
         <v>0.83421377506971162</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M34" s="11">
+        <f>_xlfn.STDEV.P(H34:L34)</f>
+        <v>2.0020046814027267E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2063,22 +2363,30 @@
         <v>1.4801219737100999</v>
       </c>
       <c r="G35" s="6">
+        <f>_xlfn.STDEV.P(C35:F35)</f>
+        <v>0.35520244933632666</v>
+      </c>
+      <c r="H35" s="6">
         <v>1.127261420588582</v>
       </c>
-      <c r="H35" s="6">
+      <c r="I35" s="6">
         <v>1.1324808319831909</v>
       </c>
-      <c r="I35" s="6">
+      <c r="J35" s="6">
         <v>1.1334124371377921</v>
       </c>
-      <c r="J35" s="6">
+      <c r="K35" s="6">
         <v>1.1340882741397309</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="6">
         <v>1.134680255515311</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M35" s="11">
+        <f>_xlfn.STDEV.P(H35:L35)</f>
+        <v>2.6640276600565565E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2098,22 +2406,30 @@
         <v>0.74576335677606032</v>
       </c>
       <c r="G36" s="6">
+        <f>_xlfn.STDEV.P(C36:F36)</f>
+        <v>0.10897922412271852</v>
+      </c>
+      <c r="H36" s="6">
         <v>0.64467205473541034</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <v>0.64658223077729871</v>
       </c>
-      <c r="I36" s="6">
+      <c r="J36" s="6">
         <v>0.64692149895707474</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="6">
         <v>0.64716721129990262</v>
       </c>
-      <c r="K36" s="6">
+      <c r="L36" s="6">
         <v>0.64738213326022487</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M36" s="11">
+        <f>_xlfn.STDEV.P(H36:L36)</f>
+        <v>9.7355026099086976E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2133,22 +2449,30 @@
         <v>0.62863014193397881</v>
       </c>
       <c r="G37" s="6">
+        <f>_xlfn.STDEV.P(C37:F37)</f>
+        <v>0.11884669881036186</v>
+      </c>
+      <c r="H37" s="6">
         <v>0.51067894062457431</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <v>0.51188843812667439</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <v>0.51210208617832764</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <v>0.51225653276165095</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <v>0.51239141320910997</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M37" s="11">
+        <f>_xlfn.STDEV.P(H37:L37)</f>
+        <v>6.1544996466909245E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2168,22 +2492,30 @@
         <v>1.51705681587268</v>
       </c>
       <c r="G38" s="6">
+        <f>_xlfn.STDEV.P(C38:F38)</f>
+        <v>0.14193984883475663</v>
+      </c>
+      <c r="H38" s="6">
         <v>1.3478200186552749</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="6">
         <v>1.35814285208393</v>
       </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <v>1.360026660764043</v>
       </c>
-      <c r="J38" s="6">
+      <c r="K38" s="6">
         <v>1.3602792366598799</v>
       </c>
-      <c r="K38" s="6">
+      <c r="L38" s="6">
         <v>1.361381604779496</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M38" s="11">
+        <f>_xlfn.STDEV.P(H38:L38)</f>
+        <v>4.9655976865639355E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2203,22 +2535,30 @@
         <v>1.375537571066312</v>
       </c>
       <c r="G39" s="6">
+        <f>_xlfn.STDEV.P(C39:F39)</f>
+        <v>0.27556664757986704</v>
+      </c>
+      <c r="H39" s="6">
         <v>1.1068910090248421</v>
       </c>
-      <c r="H39" s="6">
+      <c r="I39" s="6">
         <v>1.1115376863973361</v>
       </c>
-      <c r="I39" s="6">
+      <c r="J39" s="6">
         <v>1.1123637357076339</v>
       </c>
-      <c r="J39" s="6">
+      <c r="K39" s="6">
         <v>1.112962232968175</v>
       </c>
-      <c r="K39" s="6">
+      <c r="L39" s="6">
         <v>1.1134859112106319</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M39" s="11">
+        <f>_xlfn.STDEV.P(H39:L39)</f>
+        <v>2.3689139200023732E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2238,22 +2578,30 @@
         <v>1.0053529718420591</v>
       </c>
       <c r="G40" s="6">
+        <f>_xlfn.STDEV.P(C40:F40)</f>
+        <v>5.7201392149351458E-2</v>
+      </c>
+      <c r="H40" s="6">
         <v>0.9613538741732951</v>
       </c>
-      <c r="H40" s="6">
+      <c r="I40" s="6">
         <v>0.96381616109931734</v>
       </c>
-      <c r="I40" s="6">
+      <c r="J40" s="6">
         <v>0.96423878816904574</v>
       </c>
-      <c r="J40" s="6">
+      <c r="K40" s="6">
         <v>0.96454039883458809</v>
       </c>
-      <c r="K40" s="6">
+      <c r="L40" s="6">
         <v>0.96480077111139018</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M40" s="11">
+        <f>_xlfn.STDEV.P(H40:L40)</f>
+        <v>1.2420596112027651E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2273,22 +2621,30 @@
         <v>1.119968839546994</v>
       </c>
       <c r="G41" s="6">
+        <f>_xlfn.STDEV.P(C41:F41)</f>
+        <v>0.20951073650065891</v>
+      </c>
+      <c r="H41" s="6">
         <v>0.87116443560966539</v>
       </c>
-      <c r="H41" s="6">
+      <c r="I41" s="6">
         <v>0.88668370255693385</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="6">
         <v>0.8894839374481005</v>
       </c>
-      <c r="J41" s="6">
+      <c r="K41" s="6">
         <v>0.8899175559974416</v>
       </c>
-      <c r="K41" s="6">
+      <c r="L41" s="6">
         <v>0.8915582025013804</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M41" s="11">
+        <f>_xlfn.STDEV.P(H41:L41)</f>
+        <v>7.4653311815038037E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2308,22 +2664,30 @@
         <v>0.94568570855042156</v>
       </c>
       <c r="G42" s="6">
+        <f>_xlfn.STDEV.P(C42:F42)</f>
+        <v>0.10667411969164314</v>
+      </c>
+      <c r="H42" s="6">
         <v>0.84379565114264954</v>
       </c>
-      <c r="H42" s="6">
+      <c r="I42" s="6">
         <v>0.84536746871907176</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <v>0.84564230299269949</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <v>0.84584018736370137</v>
       </c>
-      <c r="K42" s="6">
+      <c r="L42" s="6">
         <v>0.84601239917285354</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M42" s="11">
+        <f>_xlfn.STDEV.P(H42:L42)</f>
+        <v>7.9738452798302811E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2343,22 +2707,30 @@
         <v>1.3753113431872519</v>
       </c>
       <c r="G43" s="6">
+        <f>_xlfn.STDEV.P(C43:F43)</f>
+        <v>0.32902477752838943</v>
+      </c>
+      <c r="H43" s="6">
         <v>0.97699827827691321</v>
       </c>
-      <c r="H43" s="6">
+      <c r="I43" s="6">
         <v>1.00128805217646</v>
       </c>
-      <c r="I43" s="6">
+      <c r="J43" s="6">
         <v>1.005662647735418</v>
       </c>
-      <c r="J43" s="6">
+      <c r="K43" s="6">
         <v>1.006209924468503</v>
       </c>
-      <c r="K43" s="6">
+      <c r="L43" s="6">
         <v>1.0087576530425839</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M43" s="11">
+        <f>_xlfn.STDEV.P(H43:L43)</f>
+        <v>1.1643270489167027E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2378,22 +2750,30 @@
         <v>1.8493903190752921</v>
       </c>
       <c r="G44" s="6">
+        <f>_xlfn.STDEV.P(C44:F44)</f>
+        <v>0.46445421256040775</v>
+      </c>
+      <c r="H44" s="6">
         <v>1.267888619138982</v>
       </c>
-      <c r="H44" s="6">
+      <c r="I44" s="6">
         <v>1.301117421036639</v>
       </c>
-      <c r="I44" s="6">
+      <c r="J44" s="6">
         <v>1.307133212836729</v>
       </c>
-      <c r="J44" s="6">
+      <c r="K44" s="6">
         <v>1.307662854551968</v>
       </c>
-      <c r="K44" s="6">
+      <c r="L44" s="6">
         <v>1.3111526650072389</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M44" s="11">
+        <f>_xlfn.STDEV.P(H44:L44)</f>
+        <v>1.5882585108450812E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -2413,22 +2793,30 @@
         <v>1.19986934432857</v>
       </c>
       <c r="G45" s="8">
+        <f>_xlfn.STDEV.P(C45:F45)</f>
+        <v>0.26057690749113477</v>
+      </c>
+      <c r="H45" s="8">
         <v>0.94456119995924848</v>
       </c>
-      <c r="H45" s="8">
+      <c r="I45" s="8">
         <v>0.94765255496276013</v>
       </c>
-      <c r="I45" s="8">
+      <c r="J45" s="8">
         <v>0.94820828959123626</v>
       </c>
-      <c r="J45" s="8">
+      <c r="K45" s="8">
         <v>0.94861270643125239</v>
       </c>
-      <c r="K45" s="8">
+      <c r="L45" s="8">
         <v>0.94896791631788036</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M45" s="8">
+        <f>_xlfn.STDEV.P(H45:L45)</f>
+        <v>1.5813824258764325E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2448,22 +2836,30 @@
         <v>1.6151269420197569</v>
       </c>
       <c r="G46" s="6">
+        <f>_xlfn.STDEV.P(C46:F46)</f>
+        <v>0.40704518519244137</v>
+      </c>
+      <c r="H46" s="6">
         <v>1.1431767959778341</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I46" s="6">
         <v>1.1737055938933429</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J46" s="6">
         <v>1.1792072352672269</v>
       </c>
-      <c r="J46" s="6">
+      <c r="K46" s="6">
         <v>1.180215617359339</v>
       </c>
-      <c r="K46" s="6">
+      <c r="L46" s="6">
         <v>1.183453860697808</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M46" s="11">
+        <f>_xlfn.STDEV.P(H46:L46)</f>
+        <v>1.4726208392219333E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2483,22 +2879,30 @@
         <v>0.8036522690572615</v>
       </c>
       <c r="G47" s="6">
+        <f>_xlfn.STDEV.P(C47:F47)</f>
+        <v>0.10159795833298939</v>
+      </c>
+      <c r="H47" s="6">
         <v>0.72116794128032835</v>
       </c>
-      <c r="H47" s="6">
+      <c r="I47" s="6">
         <v>0.72443067773170278</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <v>0.72500757632520962</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <v>0.72542468372925517</v>
       </c>
-      <c r="K47" s="6">
+      <c r="L47" s="6">
         <v>0.72578898815541215</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M47" s="11">
+        <f>_xlfn.STDEV.P(H47:L47)</f>
+        <v>1.6606666708831193E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -2518,22 +2922,30 @@
         <v>0.72989666931715302</v>
       </c>
       <c r="G48" s="8">
+        <f>_xlfn.STDEV.P(C48:F48)</f>
+        <v>0.14760036156854456</v>
+      </c>
+      <c r="H48" s="8">
         <v>0.58767941356717057</v>
       </c>
-      <c r="H48" s="8">
+      <c r="I48" s="8">
         <v>0.59041418540302704</v>
       </c>
-      <c r="I48" s="8">
+      <c r="J48" s="8">
         <v>0.59089744877764716</v>
       </c>
-      <c r="J48" s="8">
+      <c r="K48" s="8">
         <v>0.59124666646203061</v>
       </c>
-      <c r="K48" s="8">
+      <c r="L48" s="8">
         <v>0.59155151552462704</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M48" s="8">
+        <f>_xlfn.STDEV.P(H48:L48)</f>
+        <v>1.3916317279336636E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2553,22 +2965,30 @@
         <v>1.8834589975959859</v>
       </c>
       <c r="G49" s="6">
+        <f>_xlfn.STDEV.P(C49:F49)</f>
+        <v>0.46250116171676237</v>
+      </c>
+      <c r="H49" s="6">
         <v>1.394654656974941</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <v>1.394471695064037</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <v>1.3944489253109711</v>
       </c>
-      <c r="J49" s="6">
+      <c r="K49" s="6">
         <v>1.394436196329722</v>
       </c>
-      <c r="K49" s="6">
+      <c r="L49" s="6">
         <v>1.394428092236526</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M49" s="11">
+        <f>_xlfn.STDEV.P(H49:L49)</f>
+        <v>8.4663749325092656E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2588,22 +3008,30 @@
         <v>1.4774176372403509</v>
       </c>
       <c r="G50" s="6">
+        <f>_xlfn.STDEV.P(C50:F50)</f>
+        <v>0.34970548141401198</v>
+      </c>
+      <c r="H50" s="6">
         <v>1.1215233050651039</v>
       </c>
-      <c r="H50" s="6">
+      <c r="I50" s="6">
         <v>1.124728753789088</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <v>1.125288824154925</v>
       </c>
-      <c r="J50" s="6">
+      <c r="K50" s="6">
         <v>1.1256919820111939</v>
       </c>
-      <c r="K50" s="6">
+      <c r="L50" s="6">
         <v>1.1260427586181621</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M50" s="11">
+        <f>_xlfn.STDEV.P(H50:L50)</f>
+        <v>1.6257854373848382E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2623,22 +3051,30 @@
         <v>1.076914242195264</v>
       </c>
       <c r="G51" s="6">
+        <f>_xlfn.STDEV.P(C51:F51)</f>
+        <v>0.18791796937709382</v>
+      </c>
+      <c r="H51" s="6">
         <v>0.86004050422515077</v>
       </c>
-      <c r="H51" s="6">
+      <c r="I51" s="6">
         <v>0.87439048450373957</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <v>0.87696220341568254</v>
       </c>
-      <c r="J51" s="6">
+      <c r="K51" s="6">
         <v>0.87742938346683241</v>
       </c>
-      <c r="K51" s="6">
+      <c r="L51" s="6">
         <v>0.87893666885920152</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M51" s="11">
+        <f>_xlfn.STDEV.P(H51:L51)</f>
+        <v>6.9126235660719702E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2657,23 +3093,31 @@
       <c r="F52" s="6">
         <v>0.5432857238612695</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
+        <f>_xlfn.STDEV.P(C52:F52)</f>
+        <v>5.2815102751831662E-2</v>
+      </c>
+      <c r="H52" s="7">
         <v>0.48759736974735718</v>
       </c>
-      <c r="H52" s="7">
+      <c r="I52" s="7">
         <v>0.48793011187981061</v>
       </c>
-      <c r="I52" s="7">
+      <c r="J52" s="7">
         <v>0.48800232911270952</v>
       </c>
-      <c r="J52" s="7">
+      <c r="K52" s="7">
         <v>0.48805818493535041</v>
       </c>
-      <c r="K52" s="7">
+      <c r="L52" s="7">
         <v>0.48810972112937512</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M52" s="11">
+        <f>_xlfn.STDEV.P(H52:L52)</f>
+        <v>1.8119055237071399E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2693,22 +3137,35 @@
         <v>0.84243119313229209</v>
       </c>
       <c r="G53" s="6">
+        <f>_xlfn.STDEV.P(C53:F53)</f>
+        <v>6.2497688198381453E-2</v>
+      </c>
+      <c r="H53" s="6">
         <v>0.77953334025549004</v>
       </c>
-      <c r="H53" s="6">
+      <c r="I53" s="6">
         <v>0.78020925377416683</v>
       </c>
-      <c r="I53" s="6">
+      <c r="J53" s="6">
         <v>0.78032281006458548</v>
       </c>
-      <c r="J53" s="6">
+      <c r="K53" s="6">
         <v>0.78040342453085121</v>
       </c>
-      <c r="K53" s="6">
+      <c r="L53" s="6">
         <v>0.78047272330009976</v>
       </c>
+      <c r="M53" s="11">
+        <f>_xlfn.STDEV.P(H53:L53)</f>
+        <v>3.390219644593917E-4</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M53" xr:uid="{540AD2F5-1B60-49B0-8AC5-FC16B039B0A0}">
+    <sortState ref="A2:M53">
+      <sortCondition ref="A1:A53"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
